--- a/web/modules/custom/wind_lms/file/import_template/user_template.xlsx
+++ b/web/modules/custom/wind_lms/file/import_template/user_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>First Name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>kate.mattingly@example.com</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +433,7 @@
     <col min="5" max="5" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +446,11 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -455,7 +461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -466,7 +472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -477,7 +483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
